--- a/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\Link5_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1DF6B-3060-49EE-9CE4-A23C6A06DD2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5D4932-808B-43FF-A135-C557C0FCA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="774" activeTab="1" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="29460" yWindow="615" windowWidth="21600" windowHeight="12915" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -648,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,30 +662,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAF9AFE-CCE9-41C5-A10D-81291225854D}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M30" sqref="M30"/>
       <selection pane="topRight" activeCell="M30" sqref="M30"/>
       <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:N1048576"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -700,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -714,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -731,7 +736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -748,7 +753,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -759,13 +764,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="7">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="7">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="7">
         <v>0.19097000000000003</v>
       </c>
       <c r="L5" s="22">
@@ -781,7 +786,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -790,13 +795,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="7">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="7">
         <v>0.18855571428571433</v>
       </c>
       <c r="L6" s="22">
@@ -812,7 +817,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -827,7 +832,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -838,13 +843,13 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="7">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="7">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="7">
         <v>0.2452914285714286</v>
       </c>
       <c r="L8" s="22">
@@ -860,7 +865,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -869,13 +874,13 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="7">
         <v>0.03</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="7">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="7">
         <v>0.18855571428571433</v>
       </c>
       <c r="L9" s="22">
@@ -891,7 +896,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -906,7 +911,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -917,13 +922,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="7">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="7">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="7">
         <v>0.53609214285714291</v>
       </c>
       <c r="L11" s="22">
@@ -939,7 +944,7 @@
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -948,14 +953,14 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="7">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="7">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="7">
         <v>0.54321428571428576</v>
       </c>
       <c r="L12" s="22">
@@ -971,7 +976,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -987,7 +992,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -998,13 +1003,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="7">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="7">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="7">
         <v>0.51255285714285714</v>
       </c>
       <c r="L14" s="22">
@@ -1020,7 +1025,7 @@
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1029,14 +1034,14 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="7">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="7">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="7">
         <v>0.54321428571428576</v>
       </c>
       <c r="L15" s="22">
@@ -1052,7 +1057,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1068,7 +1073,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1079,17 +1084,17 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="7">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="7">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="7">
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1098,17 +1103,17 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="7">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="7">
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1123,7 +1128,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1138,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1153,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1173,7 +1178,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1193,7 +1198,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1211,7 +1216,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1223,13 +1228,13 @@
         <v>12</v>
       </c>
       <c r="F25" s="19">
-        <v>0.24779999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="G25" s="19">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H25" s="19">
-        <v>0.37421428571428578</v>
+        <v>0.24</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>30</v>
@@ -1237,7 +1242,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1250,17 +1255,17 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="G26" s="19">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H26" s="19">
-        <v>0.37421428571428578</v>
+        <v>0.23</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1279,7 +1284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1294,11 +1299,11 @@
       <c r="F28" s="20">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="20">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H28" s="20">
-        <v>0.72138857142857149</v>
+      <c r="G28" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.65</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>33</v>
@@ -1310,14 +1315,14 @@
       </c>
       <c r="M28" s="23">
         <f>G28</f>
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" ref="N28:N29" si="4">H28</f>
-        <v>0.72138857142857149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="15" t="s">
         <v>34</v>
@@ -1330,11 +1335,11 @@
       <c r="F29" s="20">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="20">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H29" s="20">
-        <v>0.10791857142857141</v>
+      <c r="G29" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.19</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
@@ -1343,14 +1348,14 @@
       </c>
       <c r="M29" s="23">
         <f t="shared" ref="M29" si="5">G29</f>
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="N29" s="23">
         <f t="shared" si="4"/>
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -1367,7 +1372,7 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -1384,7 +1389,7 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1412,7 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="16" t="s">
         <v>40</v>
@@ -1447,26 +1452,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17C127C-24DF-4CD4-92A6-DD34F03E1F9B}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1486,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1539,17 +1544,17 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="7">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="7">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="7">
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1558,18 +1563,18 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="7">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="7">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="7">
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1584,7 +1589,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1595,17 +1600,17 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="7">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="7">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="7">
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1614,18 +1619,18 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="7">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="7">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="7">
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1640,7 +1645,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1651,17 +1656,17 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="7">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="7">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="7">
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1670,17 +1675,17 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="7">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="7">
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1696,7 +1701,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1707,17 +1712,17 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="7">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="7">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="7">
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1726,17 +1731,17 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="7">
         <v>0.03</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="7">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="7">
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1752,7 +1757,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1763,17 +1768,17 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="7">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="7">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="7">
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1782,17 +1787,17 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="7">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="7">
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1807,7 +1812,7 @@
         <v>7.0371699999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1822,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1837,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1857,7 +1862,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1877,7 +1882,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1895,7 +1900,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1907,20 +1912,20 @@
         <v>12</v>
       </c>
       <c r="F25" s="19">
-        <v>0.24779999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G25" s="19">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H25" s="19">
-        <v>0.37421428571428578</v>
+        <v>0.24</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1930,17 +1935,17 @@
         <v>12</v>
       </c>
       <c r="F26" s="19">
-        <v>0.15379999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G26" s="19">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H26" s="19">
-        <v>0.37421428571428578</v>
+        <v>0.23</v>
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1956,7 +1961,7 @@
       </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1968,21 +1973,21 @@
         <v>12</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="20">
-        <v>2.6557142857142899E-3</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H28" s="20">
-        <v>0.72138857142857149</v>
+      <c r="F28" s="19">
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.65</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
         <v>34</v>
@@ -1992,18 +1997,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="20">
-        <v>-5.5166428571428602E-2</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H29" s="20">
-        <v>0.10791857142857141</v>
+      <c r="F29" s="19">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.19</v>
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -2019,7 +2024,7 @@
       </c>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -2035,7 +2040,7 @@
       </c>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2057,7 +2062,7 @@
       </c>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="16" t="s">
         <v>40</v>

--- a/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\Link5_S2LAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Link5_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5D4932-808B-43FF-A135-C557C0FCA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6936FAF3-BFAE-4ECD-B8E8-75BB1BD27137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29460" yWindow="615" windowWidth="21600" windowHeight="12915" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="1680" yWindow="1740" windowWidth="16530" windowHeight="12765" tabRatio="774" activeTab="1" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>Used for rear axle</t>
+  </si>
+  <si>
+    <t>UpperArmF to Subframe</t>
+  </si>
+  <si>
+    <t>LowerArmF to Subframe</t>
+  </si>
+  <si>
+    <t>UpperArmR to Subframe</t>
+  </si>
+  <si>
+    <t>LowerArmR to Subframe</t>
+  </si>
+  <si>
+    <t>Rigid_UJ</t>
   </si>
 </sst>
 </file>
@@ -263,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,9 +291,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -289,7 +303,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -299,23 +313,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -365,9 +374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +414,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -511,7 +520,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,19 +673,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M30" sqref="M30"/>
       <selection pane="topRight" activeCell="M30" sqref="M30"/>
       <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -711,11 +720,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -725,31 +733,29 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -764,24 +770,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <f>-F8</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <f>G8</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="20">
         <f>H8</f>
         <v>0.2452914285714286</v>
       </c>
@@ -795,24 +801,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <f>-F9</f>
         <v>-0.03</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <f>G9</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <f>H9</f>
         <v>0.18855571428571433</v>
       </c>
@@ -826,9 +832,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -843,24 +849,24 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="20">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.19097000000000003</v>
       </c>
@@ -874,24 +880,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.03</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <f>-F6</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
@@ -905,9 +911,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -922,24 +928,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <f>-F14</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <f>G14</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <f>H14</f>
         <v>0.51255285714285714</v>
       </c>
@@ -953,25 +959,25 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <f>-F15</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="20">
         <f>G15</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="20">
         <f>H15</f>
         <v>0.54321428571428576</v>
       </c>
@@ -985,9 +991,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1003,24 +1009,24 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="20">
         <f>-F11</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="20">
         <f>G11</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="20">
         <f t="shared" ref="N14:N15" si="2">H11</f>
         <v>0.53609214285714291</v>
       </c>
@@ -1034,25 +1040,25 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <f>-F12</f>
         <v>0.03</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="20">
         <f t="shared" ref="M15" si="3">G12</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <f t="shared" si="2"/>
         <v>0.54321428571428576</v>
       </c>
@@ -1066,9 +1072,9 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1084,13 +1090,13 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.42648357142857141</v>
       </c>
     </row>
@@ -1103,13 +1109,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.36214285714285716</v>
       </c>
     </row>
@@ -1122,9 +1128,9 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1137,9 +1143,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1152,9 +1158,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1164,19 +1170,17 @@
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1184,19 +1188,17 @@
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>0.05</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1204,43 +1206,38 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
         <v>1.76</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.65</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.24</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1251,17 +1248,16 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.91</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="6">
         <v>0.23</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1274,13 +1270,12 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1288,69 +1283,65 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="20">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="6">
         <v>0.62</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="6">
         <v>0.65</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="23">
+      <c r="L28" s="21">
         <f>-F28</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="21">
         <f>G28</f>
         <v>0.62</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="21">
         <f t="shared" ref="N28:N29" si="4">H28</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="20">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="6">
         <v>0.85</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="6">
         <v>0.19</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="23">
+      <c r="L29" s="21">
         <f>-F29</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="21">
         <f t="shared" ref="M29" si="5">G29</f>
         <v>0.85</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="21">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
@@ -1364,13 +1355,11 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>3.6529410000000002</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1381,66 +1370,119 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>4.3157700000000006</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="7">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>0.1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6">
         <v>-0.15</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:B31">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B33">
+  <conditionalFormatting sqref="A28 A34:A37">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A28:B33">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1454,15 +1496,15 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1497,11 +1539,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1511,25 +1552,23 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1544,13 +1583,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.2452914285714286</v>
       </c>
     </row>
@@ -1563,14 +1602,14 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
     </row>
@@ -1583,9 +1622,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -1600,13 +1639,13 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.19097000000000003</v>
       </c>
     </row>
@@ -1619,14 +1658,14 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
     </row>
@@ -1639,9 +1678,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -1656,13 +1695,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.51255285714285714</v>
       </c>
     </row>
@@ -1675,13 +1714,13 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
@@ -1694,9 +1733,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1712,13 +1751,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.53609214285714291</v>
       </c>
     </row>
@@ -1731,13 +1770,13 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>0.03</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
@@ -1750,14 +1789,14 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1768,17 +1807,17 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1787,17 +1826,17 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1806,13 +1845,13 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>7.0371699999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1821,13 +1860,13 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1836,96 +1875,88 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>0.05</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
         <v>1.76</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="6">
         <v>0.13</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.65</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.24</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1934,18 +1965,17 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="6">
         <v>0.13</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.91</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="6">
         <v>0.23</v>
       </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1954,61 +1984,56 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="19">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="6">
         <v>0.62</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="6">
         <v>0.65</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="19">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="6">
         <v>0.85</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="6">
         <v>0.19</v>
       </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -2017,14 +2042,13 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>3.6529410000000002</v>
       </c>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -2033,64 +2057,124 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>4.3157700000000006</v>
       </c>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="7">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>0.1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6">
         <v>-0.15</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:B31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A28:B33">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Link5_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6936FAF3-BFAE-4ECD-B8E8-75BB1BD27137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C334163-AF55-4F16-84FA-30EC2BB71F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1740" windowWidth="16530" windowHeight="12765" tabRatio="774" activeTab="1" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="15465" windowHeight="15585" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
   <si>
     <t>Units</t>
   </si>
@@ -129,18 +129,12 @@
     <t>TrackRod</t>
   </si>
   <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
     <t>Shock</t>
   </si>
   <si>
     <t>sTop</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -168,12 +159,6 @@
     <t>FiveLinkShockFront_Sedan_HambaLG_f</t>
   </si>
   <si>
-    <t>Hardpoints mirrored front/rear about reference</t>
-  </si>
-  <si>
-    <t>Used for rear axle</t>
-  </si>
-  <si>
     <t>UpperArmF to Subframe</t>
   </si>
   <si>
@@ -187,6 +172,15 @@
   </si>
   <si>
     <t>Rigid_UJ</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
   </si>
 </sst>
 </file>
@@ -196,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,12 +206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -313,18 +301,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -362,6 +378,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -673,14 +694,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M30" sqref="M30"/>
       <selection pane="topRight" activeCell="M30" sqref="M30"/>
       <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34:H37"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,11 +711,11 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -714,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -727,7 +748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -736,13 +757,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -755,11 +773,8 @@
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -779,20 +794,8 @@
       <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="20">
-        <f>-F8</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M5" s="20">
-        <f>G8</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N5" s="20">
-        <f>H8</f>
-        <v>0.2452914285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -810,20 +813,8 @@
       <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="20">
-        <f>-F9</f>
-        <v>-0.03</v>
-      </c>
-      <c r="M6" s="20">
-        <f>G9</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N6" s="20">
-        <f>H9</f>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -838,7 +829,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -858,20 +849,8 @@
       <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="20">
-        <f>-F5</f>
-        <v>-0.29913000000000006</v>
-      </c>
-      <c r="M8" s="20">
-        <f>G5</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ref="N8:N9" si="0">H5</f>
-        <v>0.19097000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -889,20 +868,8 @@
       <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="20">
-        <f>-F6</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" ref="M9" si="1">G6</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="0"/>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -917,7 +884,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -937,20 +904,8 @@
       <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="20">
-        <f>-F14</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M11" s="20">
-        <f>G14</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N11" s="20">
-        <f>H14</f>
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -969,20 +924,8 @@
       <c r="H12" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L12" s="20">
-        <f>-F15</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M12" s="20">
-        <f>G15</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N12" s="20">
-        <f>H15</f>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -998,7 +941,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1018,20 +961,8 @@
       <c r="H14" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L14" s="20">
-        <f>-F11</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M14" s="20">
-        <f>G11</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" ref="N14:N15" si="2">H11</f>
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1050,20 +981,8 @@
       <c r="H15" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L15" s="20">
-        <f>-F12</f>
-        <v>0.03</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" ref="M15" si="3">G12</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="2"/>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1079,7 +998,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1100,7 +1019,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1119,7 +1038,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1134,7 +1053,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1149,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1164,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1182,7 +1101,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1200,7 +1119,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1215,7 +1134,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1226,20 +1145,23 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="21">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="21">
         <v>0.65</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="21">
         <v>0.24</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1257,11 +1179,8 @@
       <c r="H26" s="6">
         <v>0.23</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1275,81 +1194,63 @@
       <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L27" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="18">
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="22">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="20">
         <v>0.62</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="20">
         <v>0.65</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="21">
-        <f>-F28</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M28" s="21">
-        <f>G28</f>
-        <v>0.62</v>
-      </c>
-      <c r="N28" s="21">
-        <f t="shared" ref="N28:N29" si="4">H28</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="18">
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="22">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="20">
         <v>0.85</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="20">
         <v>0.19</v>
       </c>
-      <c r="L29" s="21">
-        <f>-F29</f>
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="M29" s="21">
-        <f t="shared" ref="M29" si="5">G29</f>
-        <v>0.85</v>
-      </c>
-      <c r="N29" s="21">
-        <f t="shared" si="4"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
@@ -1361,10 +1262,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1376,44 +1277,53 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="6">
+      <c r="H32" s="19">
         <v>0.1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="6">
+      <c r="H33" s="19">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -1423,13 +1333,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -1439,13 +1349,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -1455,13 +1365,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -1471,18 +1381,28 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="22" t="s">
-        <v>49</v>
+      <c r="H37" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28 A34:A37">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1498,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1429,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1555,7 +1475,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,17 +1863,20 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="21">
         <v>0.13</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="21">
         <v>0.65</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="21">
         <v>0.24</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1992,51 +1915,60 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="6">
+      <c r="E28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="20">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="20">
         <v>0.62</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="20">
         <v>0.65</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="6">
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="20">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="20">
         <v>0.85</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="20">
         <v>0.19</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
@@ -2051,7 +1983,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2065,42 +1997,51 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="6">
+      <c r="H32" s="19">
         <v>0.1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="6">
+      <c r="H33" s="19">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -2110,13 +2051,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -2126,13 +2067,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -2142,13 +2083,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -2158,23 +2099,33 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="22" t="s">
-        <v>49</v>
+      <c r="H37" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAF/sm_car_data_Linkage_Link5_S2LAF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Link5_S2LAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C334163-AF55-4F16-84FA-30EC2BB71F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB092ED-8B3A-4EAE-B957-5D66F10CC9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="15465" windowHeight="15585" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="31080" yWindow="0" windowWidth="21600" windowHeight="15585" tabRatio="774" activeTab="1" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAF_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>sARB</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +259,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -266,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,6 +320,8 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,14 +708,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M30" sqref="M30"/>
       <selection pane="topRight" activeCell="M30" sqref="M30"/>
       <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +729,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -735,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -748,7 +762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -760,7 +774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -774,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -795,7 +809,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -814,7 +828,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -829,7 +843,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -850,7 +864,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -869,209 +883,222 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>2.9028299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="23">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.16634428571428575</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
+        <v>0.16634428571428575</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.18372714285714289</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>9.4157142857142894E-3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>9.4157142857142894E-3</v>
       </c>
       <c r="G18" s="6">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H18" s="6">
-        <v>0.36214285714285716</v>
+        <v>0.42648357142857141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H19" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
@@ -1086,146 +1113,136 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0.65</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="21">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G26" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.23</v>
+      <c r="G26" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H27" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>31</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="22">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="H28" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -1235,13 +1252,13 @@
         <v>46</v>
       </c>
       <c r="F29" s="22">
-        <v>5.5166428571428582E-2</v>
+        <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G29" s="20">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H29" s="20">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>46</v>
@@ -1249,23 +1266,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
+      <c r="B30" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="22">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1274,36 +1301,30 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -1315,31 +1336,36 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="19">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="18" t="s">
-        <v>44</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19">
+        <v>-0.15</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -1355,7 +1381,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -1371,7 +1397,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -1385,24 +1411,40 @@
         <v>44</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28 A34:A37">
+  <conditionalFormatting sqref="A29 A35:A38">
     <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B33">
+  <conditionalFormatting sqref="A29:B34">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1416,10 +1458,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1475,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1453,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1466,7 +1508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1492,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1555,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1533,7 +1575,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1548,7 +1590,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +1611,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1589,207 +1631,220 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>2.9028299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18372714285714289</v>
       </c>
       <c r="G12" s="6">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H12" s="6">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6">
-        <v>0.03</v>
+        <v>-0.16634428571428575</v>
       </c>
       <c r="G15" s="6">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H15" s="6">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>-9.4157142857142894E-3</v>
       </c>
       <c r="G18" s="6">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H18" s="6">
-        <v>0.36214285714285716</v>
+        <v>0.42648357142857141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H19" s="6">
-        <v>7.0371699999999997</v>
+        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
@@ -1804,146 +1859,136 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.13</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0.65</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0.24</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="21">
         <v>0.13</v>
       </c>
-      <c r="G26" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.23</v>
+      <c r="G26" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H27" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>31</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="20">
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="G28" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="H28" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -1953,13 +1998,13 @@
         <v>46</v>
       </c>
       <c r="F29" s="20">
-        <v>-5.5166428571428582E-2</v>
+        <v>2.6557142857142869E-3</v>
       </c>
       <c r="G29" s="20">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H29" s="20">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>46</v>
@@ -1967,23 +2012,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
+      <c r="B30" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="20">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G30" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1992,36 +2047,30 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -2033,31 +2082,36 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="19">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="18" t="s">
-        <v>44</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="19">
+        <v>-0.15</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -2073,7 +2127,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -2089,7 +2143,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -2103,29 +2157,45 @@
         <v>44</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A35:A38">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+  <conditionalFormatting sqref="A29:B34">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
